--- a/data/trans_camb/P16A11-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A11-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P16A11-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A11-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,83</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,73</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,04</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,76</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,81</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,87</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,14</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,63; 2,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,75; 11,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,53; 10,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,98; 5,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,65; 2,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,49; 18,41</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,0; 3,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,8; 4,07</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,63; 12,83</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,81%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,74%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,54%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,07%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,85%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,29%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,51%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,05%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,77; 24,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,27; 87,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,99; 83,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,2; 38,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,17; 20,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,86; 108,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,05; 18,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,83; 28,39</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,95; 80,07</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,82</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,23</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,66</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,97</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,98</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,24</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,96</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,11</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,54; 11,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,11; 4,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,97; 12,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,39; 14,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,6; 9,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,88; 9,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,16; 11,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,19; 6,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,35; 10,07</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,8%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,05%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,33%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,48%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,62%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,02%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>56,54%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,34%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,78%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,72; 95,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,29; 39,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,41; 111,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,07; 105,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,16; 71,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,2; 70,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,08; 88,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,26; 47,37</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,95; 76,54</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,87</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,49</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,85; 5,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,14; 5,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,53; 7,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,61; 4,59</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,15; 2,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,34; 4,12</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,68; 4,1</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,04; 2,73</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,17; 4,85</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,46%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,7%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,15%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,46%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,87%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,48%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,6; 48,48</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,6; 47,55</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,21; 63,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,87; 28,27</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,38; 18,95</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,84; 27,36</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,32; 29,15</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,6; 19,54</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,47; 34,0</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,08</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,82</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,33</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,39</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,18</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,46; 6,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,24; 5,26</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,43; 11,21</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,37; 4,29</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,4; 5,93</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,01; 33,04</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,0; 4,37</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,94; 4,5</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,73; 27,93</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,34%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,33%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,71%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,81%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,67%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,79%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,91%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>62,12%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,54; 57,4</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,59; 46,85</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,06; 103,79</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,22; 28,97</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,05; 39,9</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,45; 218,26</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,02; 32,76</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,81; 33,99</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,37; 196,18</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,96</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,89</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,93</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,64</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,2</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,33</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,6</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,61</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,61; 10,2</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,95; 6,92</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,99; 12,24</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,05; 11,14</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,77; 4,95</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,07; 11,63</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,04; 9,91</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,17; 4,91</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,6; 10,93</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,14%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,12%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>78,46%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,67%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,03%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>52,22%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>53,67%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,02%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,12%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,12; 101,7</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,73; 67,51</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>43,83; 120,85</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,24; 78,78</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,04; 34,2</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,85; 79,69</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>33,91; 78,23</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,13; 39,38</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>43,27; 87,33</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,01</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,65</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,23</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,46</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,13</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,63</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,32; 5,72</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,48; 3,78</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,86; 8,43</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,29; 6,18</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,86; 2,9</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,54; 13,93</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,83; 5,49</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,34; 2,99</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,83; 11,35</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,78%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,51%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>52,65%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,39%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,53%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,72%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,13%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,24%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,18%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,86; 48,05</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,62; 31,9</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>36,01; 71,57</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,75; 38,66</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,96; 18,49</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,22; 83,6</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,51; 38,89</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,18; 21,44</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>32,01; 76,32</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A11-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A11-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-5,83</t>
+          <t>4,73</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>6,67</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-3,73</t>
+          <t>7,49</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-7,04</t>
+          <t>2,97</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>9,76</t>
+          <t>6,69</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-4,81</t>
+          <t>6,1</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-2,87</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>6,14</t>
+          <t>6,72</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-15,63; 2,8</t>
+          <t>0,93; 8,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,75; 11,01</t>
+          <t>-2,57; 4,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,53; 10,5</t>
+          <t>2,58; 10,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-13,98; 5,93</t>
+          <t>3,26; 11,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-16,65; 2,83</t>
+          <t>-1,56; 6,87</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 18,41</t>
+          <t>2,78; 9,9</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-12,0; 3,01</t>
+          <t>3,32; 9,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,8; 4,07</t>
+          <t>-0,77; 5,07</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 12,83</t>
+          <t>4,07; 9,58</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-31,81%</t>
+          <t>33,18%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,48%</t>
+          <t>7,15%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,74%</t>
+          <t>46,81%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-17,54%</t>
+          <t>45,05%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-33,07%</t>
+          <t>17,87%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>45,85%</t>
+          <t>40,22%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-24,29%</t>
+          <t>39,53%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-14,51%</t>
+          <t>12,94%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>31,05%</t>
+          <t>43,54%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-66,77; 24,07</t>
+          <t>5,27; 69,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-38,27; 87,89</t>
+          <t>-15,89; 35,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-36,99; 83,37</t>
+          <t>14,92; 83,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-54,2; 38,53</t>
+          <t>16,67; 78,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-63,17; 20,24</t>
+          <t>-7,57; 47,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 108,35</t>
+          <t>13,88; 67,12</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-51,05; 18,16</t>
+          <t>20,12; 65,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-42,83; 28,39</t>
+          <t>-5,03; 36,47</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 80,07</t>
+          <t>23,47; 66,82</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,82</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,23</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,66</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,97</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,98</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>8,24</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,96</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>7,11</t>
+          <t>0,6</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,54; 11,09</t>
+          <t>-0,85; 5,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 4,73</t>
+          <t>-1,14; 5,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,97; 12,46</t>
+          <t>-6,02; 5,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,39; 14,29</t>
+          <t>-2,61; 4,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,6; 9,88</t>
+          <t>-4,15; 2,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,88; 9,35</t>
+          <t>-2,31; 4,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,16; 11,59</t>
+          <t>-0,68; 4,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 6,16</t>
+          <t>-2,04; 2,73</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,35; 10,07</t>
+          <t>-4,69; 3,68</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>50,8%</t>
+          <t>17,46%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,05%</t>
+          <t>14,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>61,33%</t>
+          <t>5,62%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>61,48%</t>
+          <t>6,15%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>31,62%</t>
+          <t>-5,46%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>38,02%</t>
+          <t>6,21%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>56,54%</t>
+          <t>10,87%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>20,34%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>48,78%</t>
+          <t>3,96%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,72; 95,25</t>
+          <t>-5,6; 48,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-20,29; 39,97</t>
+          <t>-8,6; 47,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>26,41; 111,2</t>
+          <t>-43,5; 44,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>24,07; 105,04</t>
+          <t>-12,87; 28,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,16; 71,32</t>
+          <t>-21,38; 18,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,2; 70,76</t>
+          <t>-12,07; 26,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>31,08; 88,56</t>
+          <t>-4,32; 29,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 47,37</t>
+          <t>-12,6; 19,54</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>26,95; 76,54</t>
+          <t>-28,2; 25,65</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>2,08</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,77</t>
+          <t>1,82</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,87</t>
+          <t>6,74</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>17,64</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,64</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2,49</t>
+          <t>13,24</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 5,39</t>
+          <t>-1,46; 6,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 5,05</t>
+          <t>-2,24; 5,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,53; 7,06</t>
+          <t>2,95; 10,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 4,59</t>
+          <t>-3,37; 4,29</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 2,85</t>
+          <t>-2,4; 5,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 4,12</t>
+          <t>-1,85; 46,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 4,1</t>
+          <t>-1,0; 4,37</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 2,73</t>
+          <t>-0,94; 4,5</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,17; 4,85</t>
+          <t>2,1; 39,69</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>17,46%</t>
+          <t>16,34%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>14,0%</t>
+          <t>14,33%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>30,7%</t>
+          <t>53,04%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>6,15%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-5,46%</t>
+          <t>9,81%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>104,71%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>10,87%</t>
+          <t>9,79%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>11,91%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>16,48%</t>
+          <t>89,56%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 48,48</t>
+          <t>-10,54; 57,4</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-8,6; 47,55</t>
+          <t>-14,59; 46,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,21; 63,65</t>
+          <t>19,13; 98,09</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-12,87; 28,27</t>
+          <t>-18,22; 28,97</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-21,38; 18,95</t>
+          <t>-13,05; 39,9</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-11,84; 27,36</t>
+          <t>-10,94; 313,09</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 29,15</t>
+          <t>-6,02; 32,76</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-12,6; 19,54</t>
+          <t>-5,81; 33,99</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,47; 34,0</t>
+          <t>13,93; 291,84</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,08</t>
+          <t>6,96</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,82</t>
+          <t>3,89</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
+          <t>8,56</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>7,64</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1,42</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>6,66</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
           <t>7,33</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>0,8</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>1,65</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>10,39</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>1,45</t>
-        </is>
-      </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,76</t>
+          <t>2,6</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>9,18</t>
+          <t>7,6</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 6,1</t>
+          <t>3,61; 10,2</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 5,26</t>
+          <t>0,95; 6,92</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,43; 11,21</t>
+          <t>5,6; 11,89</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 4,29</t>
+          <t>4,05; 11,14</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 5,93</t>
+          <t>-1,77; 4,95</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 33,04</t>
+          <t>1,89; 9,85</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 4,37</t>
+          <t>5,04; 9,91</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 4,5</t>
+          <t>0,17; 4,91</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,73; 27,93</t>
+          <t>4,99; 10,0</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>16,34%</t>
+          <t>61,14%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>14,33%</t>
+          <t>34,12%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>57,71%</t>
+          <t>75,15%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>48,67%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>9,81%</t>
+          <t>9,03%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>61,67%</t>
+          <t>42,43%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>9,79%</t>
+          <t>53,67%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>11,91%</t>
+          <t>19,02%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>62,12%</t>
+          <t>55,7%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-10,54; 57,4</t>
+          <t>29,12; 101,7</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-14,59; 46,85</t>
+          <t>7,73; 67,51</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>23,06; 103,79</t>
+          <t>41,51; 116,38</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-18,22; 28,97</t>
+          <t>23,24; 78,78</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-13,05; 39,9</t>
+          <t>-10,04; 34,2</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 218,26</t>
+          <t>12,13; 69,81</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 32,76</t>
+          <t>33,91; 78,23</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 33,99</t>
+          <t>1,13; 39,38</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>17,37; 196,18</t>
+          <t>34,53; 79,64</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>6,96</t>
+          <t>4,01</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>3,89</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>8,93</t>
+          <t>5,11</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>7,64</t>
+          <t>4,23</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>8,2</t>
+          <t>8,0</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>7,33</t>
+          <t>4,13</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>8,61</t>
+          <t>6,62</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>3,61; 10,2</t>
+          <t>2,32; 5,72</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,95; 6,92</t>
+          <t>0,48; 3,78</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>5,99; 12,24</t>
+          <t>0,77; 7,1</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,05; 11,14</t>
+          <t>2,29; 6,18</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 4,95</t>
+          <t>-0,86; 2,9</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>5,07; 11,63</t>
+          <t>2,76; 20,4</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>5,04; 9,91</t>
+          <t>2,83; 5,49</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,17; 4,91</t>
+          <t>0,34; 2,99</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>6,6; 10,93</t>
+          <t>3,52; 14,62</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>61,14%</t>
+          <t>31,78%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>34,12%</t>
+          <t>17,51%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>78,46%</t>
+          <t>40,48%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>48,67%</t>
+          <t>25,39%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>9,03%</t>
+          <t>6,53%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>52,22%</t>
+          <t>48,01%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>53,67%</t>
+          <t>28,13%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>19,02%</t>
+          <t>11,24%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>63,12%</t>
+          <t>45,12%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>29,12; 101,7</t>
+          <t>16,86; 48,05</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>7,73; 67,51</t>
+          <t>3,62; 31,9</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>43,83; 120,85</t>
+          <t>6,61; 59,33</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>23,24; 78,78</t>
+          <t>12,75; 38,66</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-10,04; 34,2</t>
+          <t>-4,96; 18,49</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>27,85; 79,69</t>
+          <t>16,34; 126,51</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>33,91; 78,23</t>
+          <t>18,51; 38,89</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>1,13; 39,38</t>
+          <t>2,18; 21,44</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>43,27; 87,33</t>
+          <t>23,93; 99,97</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>4,01</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>2,21</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>6,65</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>4,23</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>1,09</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>6,46</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>4,13</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>1,65</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>6,63</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>2,32; 5,72</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>0,48; 3,78</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>4,86; 8,43</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>2,29; 6,18</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-0,86; 2,9</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>3,54; 13,93</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>2,83; 5,49</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>0,34; 2,99</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>4,83; 11,35</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>31,78%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>17,51%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>52,65%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>25,39%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>6,53%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>38,72%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>28,13%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>11,24%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>45,18%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>16,86; 48,05</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>3,62; 31,9</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>36,01; 71,57</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>12,75; 38,66</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-4,96; 18,49</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>20,22; 83,6</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>18,51; 38,89</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>2,18; 21,44</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>32,01; 76,32</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P16A11-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A11-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,93; 8,7</t>
+          <t>0,95; 8,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 4,41</t>
+          <t>-2,54; 4,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,58; 10,57</t>
+          <t>2,82; 10,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,26; 11,53</t>
+          <t>2,57; 11,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 6,87</t>
+          <t>-1,18; 7,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,78; 9,9</t>
+          <t>3,45; 10,52</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,32; 9,14</t>
+          <t>3,08; 8,8</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 5,07</t>
+          <t>-0,73; 4,72</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,07; 9,58</t>
+          <t>4,13; 9,41</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,27; 69,09</t>
+          <t>6,56; 70,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-15,89; 35,39</t>
+          <t>-16,83; 38,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,92; 83,99</t>
+          <t>16,61; 82,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,67; 78,32</t>
+          <t>13,36; 80,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-7,57; 47,69</t>
+          <t>-6,71; 47,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>13,88; 67,12</t>
+          <t>18,13; 72,84</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>20,12; 65,32</t>
+          <t>18,57; 63,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 36,47</t>
+          <t>-4,23; 34,18</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>23,47; 66,82</t>
+          <t>24,82; 67,74</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 5,39</t>
+          <t>-1,36; 5,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 5,05</t>
+          <t>-1,69; 4,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 5,38</t>
+          <t>-6,51; 5,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 4,59</t>
+          <t>-2,52; 4,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 2,85</t>
+          <t>-4,34; 2,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 4,18</t>
+          <t>-1,82; 4,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 4,1</t>
+          <t>-0,8; 3,85</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 2,73</t>
+          <t>-1,91; 2,75</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 3,68</t>
+          <t>-5,74; 3,36</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 48,48</t>
+          <t>-9,8; 47,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,6; 47,55</t>
+          <t>-11,69; 41,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-43,5; 44,74</t>
+          <t>-45,74; 42,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-12,87; 28,27</t>
+          <t>-12,77; 29,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-21,38; 18,95</t>
+          <t>-23,11; 17,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-12,07; 26,81</t>
+          <t>-9,58; 26,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 29,15</t>
+          <t>-4,9; 27,95</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-12,6; 19,54</t>
+          <t>-11,57; 19,87</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-28,2; 25,65</t>
+          <t>-35,54; 23,53</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 6,1</t>
+          <t>-1,59; 6,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 5,26</t>
+          <t>-1,67; 5,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,95; 10,53</t>
+          <t>2,43; 10,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 4,29</t>
+          <t>-3,52; 4,56</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 5,93</t>
+          <t>-3,14; 5,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 46,47</t>
+          <t>-1,86; 48,87</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 4,37</t>
+          <t>-1,21; 4,23</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 4,5</t>
+          <t>-1,04; 4,52</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,1; 39,69</t>
+          <t>1,67; 40,45</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-10,54; 57,4</t>
+          <t>-12,03; 55,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-14,59; 46,85</t>
+          <t>-12,79; 51,81</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>19,13; 98,09</t>
+          <t>15,56; 98,08</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-18,22; 28,97</t>
+          <t>-18,74; 30,73</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-13,05; 39,9</t>
+          <t>-16,03; 37,03</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-10,94; 313,09</t>
+          <t>-10,47; 341,74</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 32,76</t>
+          <t>-7,35; 32,65</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 33,99</t>
+          <t>-6,57; 34,62</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>13,93; 291,84</t>
+          <t>10,52; 276,74</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,61; 10,2</t>
+          <t>3,64; 10,16</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,95; 6,92</t>
+          <t>0,71; 7,01</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,6; 11,89</t>
+          <t>5,39; 11,64</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,05; 11,14</t>
+          <t>4,16; 11,55</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 4,95</t>
+          <t>-2,41; 4,74</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,89; 9,85</t>
+          <t>1,91; 10,07</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,04; 9,91</t>
+          <t>5,03; 9,72</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,17; 4,91</t>
+          <t>0,37; 5,03</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,99; 10,0</t>
+          <t>4,78; 9,89</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>29,12; 101,7</t>
+          <t>27,44; 100,95</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>7,73; 67,51</t>
+          <t>5,36; 71,1</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>41,51; 116,38</t>
+          <t>43,82; 118,35</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>23,24; 78,78</t>
+          <t>23,49; 82,44</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-10,04; 34,2</t>
+          <t>-13,85; 34,06</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>12,13; 69,81</t>
+          <t>12,15; 71,86</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>33,91; 78,23</t>
+          <t>33,72; 77,03</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1,13; 39,38</t>
+          <t>2,48; 40,54</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>34,53; 79,64</t>
+          <t>33,77; 78,86</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,32; 5,72</t>
+          <t>2,23; 5,78</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,48; 3,78</t>
+          <t>0,63; 3,95</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,77; 7,1</t>
+          <t>1,01; 7,31</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,29; 6,18</t>
+          <t>2,51; 6,17</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 2,9</t>
+          <t>-0,83; 2,84</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>2,76; 20,4</t>
+          <t>2,9; 22,26</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,83; 5,49</t>
+          <t>2,87; 5,4</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,34; 2,99</t>
+          <t>0,37; 2,99</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>3,52; 14,62</t>
+          <t>3,66; 15,42</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>16,86; 48,05</t>
+          <t>16,44; 48,97</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>3,62; 31,9</t>
+          <t>4,64; 33,87</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>6,61; 59,33</t>
+          <t>9,22; 60,54</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>12,75; 38,66</t>
+          <t>14,19; 39,59</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 18,49</t>
+          <t>-4,63; 18,31</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>16,34; 126,51</t>
+          <t>17,27; 129,5</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>18,51; 38,89</t>
+          <t>18,59; 38,31</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>2,18; 21,44</t>
+          <t>2,54; 21,34</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>23,93; 99,97</t>
+          <t>24,12; 103,79</t>
         </is>
       </c>
     </row>
